--- a/responses.xlsx
+++ b/responses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Responses" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
   <si>
     <t xml:space="preserve">Button</t>
   </si>
@@ -41,13 +41,13 @@
     <t xml:space="preserve">Response.Text</t>
   </si>
   <si>
-    <t xml:space="preserve">Changed</t>
+    <t xml:space="preserve">Who bears our burdens and forgives our sins.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amen</t>
   </si>
   <si>
     <t xml:space="preserve">And also with you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amen</t>
   </si>
   <si>
     <t xml:space="preserve">Glory be to you, O Christ</t>
@@ -75,10 +75,7 @@
     <t xml:space="preserve">Thanks be to God. Alleluia</t>
   </si>
   <si>
-    <t xml:space="preserve">Affirmation of Faith 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affirmation of Faith 2</t>
+    <t xml:space="preserve">Affirmation of Faith</t>
   </si>
   <si>
     <t xml:space="preserve">Confession of Sin</t>
@@ -99,36 +96,36 @@
     <t xml:space="preserve">Column 1.Text</t>
   </si>
   <si>
+    <t xml:space="preserve">TextBlock1.Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We believe in one God, the Father, the Almighty, maker of heaven and earth, of all that is, seen and unseen. We believe in one Lord, Jesus Christ, the only Son of God, eternally begotten of the Father, God from God, Light from Light, true God from true God, begotten, not made, of one Being with the Father. Through him all things were made. For us and for our salvation he came down from heaven by the power of the Holy Spirit he became incarnate from the Virgin Mary, and was made man. For our sake he was crucified under Pontius Pilate; he suffered death and was buried. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most merciful God, we confess that we have sinned against you in thought, word, and deed, by what we have done, and by what we have left undone. We have not loved you with our whole heart; we have not loved our neighbors as ourselves. We are truly sorry and we humbly repent. For the sake of your Son Jesus Christ, have mercy on us and forgive us; that we may delight in your will, and walk in your ways, to the glory of your Name. Amen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy, holy, holy Lord, God of power and might, heaven and earth are full of your glory. Hosanna in the highest. Blessed is the one who comes in the name of the Lord. Hosanna in the highest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Father in heaven, hallowed be your Name, your kingdom come, your will be done, on Earth as in heaven. Give us today our daily bread. Forgive us our sins as we forgive those who sin against us. Save us from the time of trial, and deliver us from evil. For the kingdom, the power, and the glory are yours, now and forever. Amen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of Abundance, you have fed us with the bread of life and cup of salvation; in Christ you have united us with one another; and you have made us one with all people in heaven and earth. Now send us forth in the power of your Spirit, that we may proclaim your redeeming love to the world and continue for ever in the risen life of Christ our Savior. Amen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Column 2.Text</t>
   </si>
   <si>
-    <t xml:space="preserve">TextBlock1.Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We believe in one God, the Father, the Almighty, maker of heaven and earth, of all that is, seen and unseen. We believe in one Lord, Jesus Christ, the only Son of God, eternally begotten of the Father, God from God, Light from Light, true God from true God, begotten, not made, of one Being with the Father. Through him all things were made. For us and for our salvation he came down from heaven by the power of the Holy Spirit he became incarnate from the Virgin Mary, and was made man. For our sake he was crucified under Pontius Pilate; he suffered death and was buried. </t>
+    <t xml:space="preserve">----</t>
   </si>
   <si>
     <t xml:space="preserve">On the third day he rose again in accordance with the Scriptures; he ascended into heaven and is seated at the right hand of the Father. He will come again in glory to judge the living and the dead, and his kingdom will have no end. We believe in the Holy Spirit, the Lord, the giver of life, who proceeds from the Father and the Son. With the Father and the Son he is worshiped and glorified. He has spoken through the Prophets. We believe in one holy catholic and apostolic Church. We acknowledge one baptism for the forgiveness of sins. We look for the resurrection of the dead, and the life of the world to come. Amen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Most merciful God, we confess that we have sinned against you in thought, word, and deed, by what we have done, and by what we have left undone. We have not loved you with our whole heart; we have not loved our neighbors as ourselves. We are truly sorry and we humbly repent. For the sake of your Son Jesus Christ, have mercy on us and forgive us; that we may delight in your will, and walk in your ways, to the glory of your Name. Amen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy, holy, holy Lord, God of power and might, heaven and earth are full of your glory. Hosanna in the highest. Blessed is the one who comes in the name of the Lord. Hosanna in the highest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our Father in heaven, hallowed be your Name, your kingdom come, your will be done, on Earth as in heaven. Give us today our daily bread. Forgive us our sins as we forgive those who sin against us. Save us from the time of trial, and deliver us from evil. For the kingdom, the power, and the glory are yours, now and forever. Amen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God of Abundance, you have fed us with the bread of life and cup of salvation; in Christ you have united us with one another; and you have made us one with all people in heaven and earth. Now send us forth in the power of your Spirit, that we may proclaim your redeeming love to the world and continue for ever in the risen life of Christ our Savior. Amen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternatives</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -189,23 +186,7 @@
     <t xml:space="preserve">green: 1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">off: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">49,50,51,52</t>
-    </r>
+    <t xml:space="preserve">off: 49,50,51,52</t>
   </si>
   <si>
     <t xml:space="preserve">off: 68</t>
@@ -295,7 +276,13 @@
     <t xml:space="preserve">Button Released</t>
   </si>
   <si>
-    <t xml:space="preserve">merge_input input_num=11</t>
+    <t xml:space="preserve">Merge Input=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Input=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Input=37</t>
   </si>
   <si>
     <t xml:space="preserve">Fader</t>
@@ -311,10 +298,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -338,11 +326,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -353,11 +336,6 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -464,7 +442,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -533,23 +511,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,21 +604,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.46"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>49</v>
       </c>
@@ -672,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>50</v>
       </c>
@@ -683,12 +657,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>8</v>
@@ -697,12 +671,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>8</v>
@@ -711,12 +685,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>8</v>
@@ -725,12 +699,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>8</v>
@@ -739,12 +713,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>8</v>
@@ -756,9 +730,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
@@ -767,12 +741,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -781,12 +755,12 @@
         <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>8</v>
@@ -795,40 +769,40 @@
         <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>8</v>
@@ -837,12 +811,12 @@
         <v>4</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>8</v>
@@ -851,12 +825,12 @@
         <v>4</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>8</v>
@@ -865,20 +839,6 @@
         <v>4</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -898,21 +858,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="35.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="37.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="32.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="23.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="31.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="37.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="35.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="32.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="23.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="31.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="37.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,9 +890,6 @@
       <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -943,18 +899,15 @@
         <v>16</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="n">
         <v>25</v>
       </c>
     </row>
@@ -966,70 +919,86 @@
         <v>44</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1054,42 +1023,42 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="18.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="22.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="22.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="11.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="14.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,55 +1085,55 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
@@ -1193,55 +1162,55 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
@@ -1270,37 +1239,37 @@
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -1332,37 +1301,37 @@
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -1392,32 +1361,32 @@
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -1447,32 +1416,32 @@
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -1502,32 +1471,32 @@
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -1557,32 +1526,32 @@
     </row>
     <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1610,27 +1579,27 @@
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1658,27 +1627,27 @@
     </row>
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -1704,21 +1673,21 @@
     </row>
     <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
@@ -1745,21 +1714,21 @@
     </row>
     <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
@@ -1784,13 +1753,13 @@
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1818,13 +1787,13 @@
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -1852,58 +1821,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="11.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="19" width="21.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="5" style="19" width="11.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="18" width="21.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="5" style="18" width="11.48"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="19" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="n">
-        <v>56</v>
-      </c>
-      <c r="B2" s="20" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="n">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="21"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="21"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="21"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="21"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="n">
+        <v>51</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1926,11 +1892,11 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1995,7 +1961,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,7 +1969,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Responses" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t xml:space="preserve">Button</t>
   </si>
@@ -150,13 +150,10 @@
     <t xml:space="preserve">InputPreview</t>
   </si>
   <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actions</t>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action On</t>
   </si>
   <si>
     <t xml:space="preserve">red: 1</t>
@@ -168,7 +165,7 @@
     <t xml:space="preserve">red: 68</t>
   </si>
   <si>
-    <t xml:space="preserve">yellow_blink: 62</t>
+    <t xml:space="preserve">yellowBlink: 62</t>
   </si>
   <si>
     <t xml:space="preserve">red: 6</t>
@@ -180,10 +177,10 @@
     <t xml:space="preserve">red: 71</t>
   </si>
   <si>
-    <t xml:space="preserve">off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green: 1</t>
+    <t xml:space="preserve">Action Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">off: 1</t>
   </si>
   <si>
     <t xml:space="preserve">off: 49,50,51,52</t>
@@ -213,10 +210,10 @@
     <t xml:space="preserve">red: 64</t>
   </si>
   <si>
-    <t xml:space="preserve">yellow_blink: 48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green: 2</t>
+    <t xml:space="preserve">yellowBlink: 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">off: 2</t>
   </si>
   <si>
     <t xml:space="preserve">off: 41,42,43,44</t>
@@ -234,10 +231,10 @@
     <t xml:space="preserve">red: 65</t>
   </si>
   <si>
-    <t xml:space="preserve">yellow_blink: 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green: 3</t>
+    <t xml:space="preserve">yellowBlink: 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">off: 3</t>
   </si>
   <si>
     <t xml:space="preserve">off: 65</t>
@@ -246,15 +243,9 @@
     <t xml:space="preserve">yellow: 40</t>
   </si>
   <si>
-    <t xml:space="preserve">red_blink: 56</t>
-  </si>
-  <si>
     <t xml:space="preserve">red: 66</t>
   </si>
   <si>
-    <t xml:space="preserve">green: 56</t>
-  </si>
-  <si>
     <t xml:space="preserve">off: 66</t>
   </si>
   <si>
@@ -283,6 +274,12 @@
   </si>
   <si>
     <t xml:space="preserve">Merge Input=37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartStopStreaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartStopRecording</t>
   </si>
   <si>
     <t xml:space="preserve">Fader</t>
@@ -352,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -375,6 +372,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="hair"/>
       <top style="hair"/>
@@ -384,6 +388,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -410,6 +421,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="hair"/>
       <top/>
@@ -442,7 +460,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -479,11 +497,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -491,27 +505,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,12 +579,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -600,7 +650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -610,7 +660,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.5"/>
@@ -854,17 +904,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="35.2"/>
@@ -1013,26 +1063,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="18.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="22.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="22.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="11.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="14.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>33</v>
       </c>
@@ -1061,7 +1111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1077,667 +1127,542 @@
       <c r="E2" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>29</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="6" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="D8" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>13</v>
-      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="8" t="n">
-        <v>3</v>
-      </c>
+      <c r="B14" s="0"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
+      <c r="B15" s="0"/>
+      <c r="D15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>3</v>
-      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="0"/>
+      <c r="D18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="8" t="n">
-        <v>11</v>
-      </c>
+      <c r="B20" s="0"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E20" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="0"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="8" t="n">
-        <v>11</v>
-      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E23" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E26" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="6" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E29" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="8" t="n">
-        <v>29</v>
-      </c>
+      <c r="D32" s="0"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="6" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="8" t="n">
-        <v>29</v>
-      </c>
+      <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="0"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
         <v>1</v>
       </c>
@@ -1745,33 +1670,33 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>1</v>
       </c>
@@ -1779,31 +1704,31 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1817,57 +1742,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="11.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="18" width="21.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="5" style="18" width="11.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="26" width="21.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="5" style="26" width="11.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="n">
+        <v>48</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="18" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="n">
+        <v>51</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="n">
-        <v>56</v>
-      </c>
-      <c r="B2" s="20" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="n">
-        <v>48</v>
-      </c>
-      <c r="B3" s="19" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="n">
-        <v>51</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1882,21 +1823,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1961,7 +1902,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1910,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
   <si>
     <t xml:space="preserve">Button</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">StartStopRecording</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dumpVars</t>
   </si>
   <si>
     <t xml:space="preserve">Fader</t>
@@ -1746,10 +1749,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1809,6 +1812,14 @@
       </c>
       <c r="B6" s="27" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="n">
+        <v>98</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1837,7 +1848,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1902,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,7 +1921,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Responses" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t xml:space="preserve">Button</t>
   </si>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">Thanks be to God. Alleluia</t>
   </si>
   <si>
+    <t xml:space="preserve">Is this working?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Affirmation of Faith</t>
   </si>
   <si>
@@ -283,6 +286,9 @@
   </si>
   <si>
     <t xml:space="preserve">dumpVars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Input=1</t>
   </si>
   <si>
     <t xml:space="preserve">Fader</t>
@@ -657,10 +663,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -669,6 +675,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,6 +900,20 @@
       </c>
       <c r="D16" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -925,23 +946,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="23.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="31.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="37.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,72 +1008,72 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1083,35 +1105,36 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="22.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="11.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,68 +1154,68 @@
         <v>29</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
@@ -1221,37 +1244,37 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="23"/>
@@ -1278,33 +1301,33 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -1332,29 +1355,29 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="0"/>
       <c r="D13" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -1382,28 +1405,28 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0"/>
       <c r="D15" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -1429,22 +1452,22 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0"/>
       <c r="D18" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="22"/>
@@ -1469,7 +1492,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0"/>
       <c r="D21" s="0"/>
@@ -1478,7 +1501,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="19"/>
@@ -1506,14 +1529,14 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="13"/>
       <c r="J24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="19"/>
@@ -1541,7 +1564,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
@@ -1549,7 +1572,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -1577,13 +1600,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -1611,14 +1634,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" s="0"/>
       <c r="J33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -1646,14 +1669,14 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="0"/>
       <c r="J36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -1681,13 +1704,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -1715,13 +1738,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -1749,10 +1772,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1761,6 +1784,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="34.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="26" width="21.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="5" style="26" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,7 +1803,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,7 +1811,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,7 +1819,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +1827,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,7 +1843,15 @@
         <v>98</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1845,10 +1877,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1913,7 +1948,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,7 +1956,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Responses" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t xml:space="preserve">Button</t>
   </si>
@@ -246,9 +246,15 @@
     <t xml:space="preserve">yellow: 40</t>
   </si>
   <si>
+    <t xml:space="preserve">red: 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">red: 66</t>
   </si>
   <si>
+    <t xml:space="preserve">green: 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">off: 66</t>
   </si>
   <si>
@@ -288,7 +294,33 @@
     <t xml:space="preserve">dumpVars</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge Input=1</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Merge Input=2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">leds green 0
+leds yellow 8,9,10</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">leds red 0
+leds yellow 1
+Merge Input=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leds off 49</t>
   </si>
   <si>
     <t xml:space="preserve">Fader</t>
@@ -308,7 +340,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -342,6 +374,11 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -469,7 +506,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -584,6 +621,14 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -665,8 +710,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1095,7 +1140,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1339,7 +1384,9 @@
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="n">
         <v>6</v>
@@ -1357,10 +1404,12 @@
       <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>69</v>
@@ -1371,10 +1420,12 @@
       <c r="A13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="C13" s="0"/>
       <c r="D13" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>72</v>
@@ -1409,7 +1460,7 @@
       </c>
       <c r="B15" s="0"/>
       <c r="D15" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>69</v>
@@ -1423,7 +1474,7 @@
       <c r="B16" s="0"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>72</v>
@@ -1456,7 +1507,7 @@
       </c>
       <c r="B18" s="0"/>
       <c r="D18" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J18" s="17"/>
     </row>
@@ -1467,7 +1518,7 @@
       <c r="B19" s="25"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="22"/>
@@ -1772,10 +1823,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1792,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +1854,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,7 +1862,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,7 +1870,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +1878,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,7 +1886,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,16 +1894,28 @@
         <v>98</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>87</v>
-      </c>
+      <c r="B8" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1883,7 +1946,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1948,7 +2011,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,7 +2019,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
   <si>
     <t xml:space="preserve">Button</t>
   </si>
@@ -159,7 +159,8 @@
     <t xml:space="preserve">Action On</t>
   </si>
   <si>
-    <t xml:space="preserve">red: 1</t>
+    <t xml:space="preserve">red: 1
+green: 2</t>
   </si>
   <si>
     <t xml:space="preserve">yellow: 49,50,51,52</t>
@@ -183,7 +184,7 @@
     <t xml:space="preserve">Action Off</t>
   </si>
   <si>
-    <t xml:space="preserve">off: 1</t>
+    <t xml:space="preserve">off: 1,2</t>
   </si>
   <si>
     <t xml:space="preserve">off: 49,50,51,52</t>
@@ -246,13 +247,7 @@
     <t xml:space="preserve">yellow: 40</t>
   </si>
   <si>
-    <t xml:space="preserve">red: 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">red: 66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green: 0</t>
   </si>
   <si>
     <t xml:space="preserve">off: 66</t>
@@ -321,6 +316,15 @@
   </si>
   <si>
     <t xml:space="preserve">leds off 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Input=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Input=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Input=3</t>
   </si>
   <si>
     <t xml:space="preserve">Fader</t>
@@ -560,7 +564,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -711,7 +715,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1140,7 +1144,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1210,7 +1214,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
@@ -1384,9 +1388,7 @@
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="B11" s="24"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="n">
         <v>6</v>
@@ -1404,12 +1406,10 @@
       <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>69</v>
@@ -1420,12 +1420,10 @@
       <c r="A13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="0"/>
       <c r="D13" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>72</v>
@@ -1460,7 +1458,7 @@
       </c>
       <c r="B15" s="0"/>
       <c r="D15" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>69</v>
@@ -1474,7 +1472,7 @@
       <c r="B16" s="0"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>72</v>
@@ -1507,7 +1505,7 @@
       </c>
       <c r="B18" s="0"/>
       <c r="D18" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J18" s="17"/>
     </row>
@@ -1518,7 +1516,7 @@
       <c r="B19" s="25"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="22"/>
@@ -1823,10 +1821,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1843,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1852,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1860,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +1868,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,7 +1892,7 @@
         <v>98</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,9 +1911,35 @@
         <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1946,7 +1970,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -2011,7 +2035,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,7 +2043,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
   <si>
     <t xml:space="preserve">Button</t>
   </si>
@@ -159,8 +159,7 @@
     <t xml:space="preserve">Action On</t>
   </si>
   <si>
-    <t xml:space="preserve">red: 1
-green: 2</t>
+    <t xml:space="preserve">red: 1</t>
   </si>
   <si>
     <t xml:space="preserve">yellow: 49,50,51,52</t>
@@ -184,7 +183,7 @@
     <t xml:space="preserve">Action Off</t>
   </si>
   <si>
-    <t xml:space="preserve">off: 1,2</t>
+    <t xml:space="preserve">green: 1</t>
   </si>
   <si>
     <t xml:space="preserve">off: 49,50,51,52</t>
@@ -217,7 +216,7 @@
     <t xml:space="preserve">yellowBlink: 48</t>
   </si>
   <si>
-    <t xml:space="preserve">off: 2</t>
+    <t xml:space="preserve">green: 2</t>
   </si>
   <si>
     <t xml:space="preserve">off: 41,42,43,44</t>
@@ -238,7 +237,7 @@
     <t xml:space="preserve">yellowBlink: 40</t>
   </si>
   <si>
-    <t xml:space="preserve">off: 3</t>
+    <t xml:space="preserve">green: 3</t>
   </si>
   <si>
     <t xml:space="preserve">off: 65</t>
@@ -564,7 +563,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -715,7 +714,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="1" sqref="B13:B14 B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -984,7 +983,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="B13:B14 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1144,7 +1143,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="B13:B14 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1214,7 +1213,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
@@ -1824,7 +1823,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1910,9 +1909,7 @@
       <c r="A9" s="26" t="n">
         <v>49</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>89</v>
-      </c>
+      <c r="B9" s="0"/>
       <c r="C9" s="0" t="s">
         <v>89</v>
       </c>
@@ -1960,7 +1957,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="1" sqref="B13:B14 A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
